--- a/batiments_electricite.xlsx
+++ b/batiments_electricite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,55 +448,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E000369</t>
+          <t>E000235</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E000303</t>
+          <t>E000022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E000195</t>
+          <t>E000286</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E000268</t>
+          <t>E000058</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E000197</t>
+          <t>E000381</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,79 +508,79 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E000326</t>
+          <t>E000049</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E000316</t>
+          <t>E000351</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E000274</t>
+          <t>E000299</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E000358</t>
+          <t>E000038</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E000325</t>
+          <t>E000095</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E000259</t>
+          <t>E000011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E000067</t>
+          <t>E000376</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E000177</t>
+          <t>E000317</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,91 +604,91 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E000222</t>
+          <t>E000126</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E000106</t>
+          <t>E000255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E000359</t>
+          <t>E000083</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E000370</t>
+          <t>E000133</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E000267</t>
+          <t>E000134</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E000112</t>
+          <t>E000331</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E000175</t>
+          <t>E000075</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E000184</t>
+          <t>E000301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,31 +700,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E000144</t>
+          <t>E000276</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E000302</t>
+          <t>E000219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E000266</t>
+          <t>E000370</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,91 +736,91 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E000252</t>
+          <t>E000054</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E000085</t>
+          <t>E000047</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E000360</t>
+          <t>E000119</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E000111</t>
+          <t>E000069</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E000301</t>
+          <t>E000080</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E000372</t>
+          <t>E000157</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>E000183</t>
+          <t>E000271</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E000258</t>
+          <t>E000161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,31 +832,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E000377</t>
+          <t>E000180</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E000381</t>
+          <t>E000105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>E000368</t>
+          <t>E000227</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>E000378</t>
+          <t>E000109</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,43 +880,43 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E000376</t>
+          <t>E000076</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>E000129</t>
+          <t>E000330</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>E000327</t>
+          <t>E000024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E000367</t>
+          <t>E000085</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,55 +928,55 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E000176</t>
+          <t>E000232</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E000109</t>
+          <t>E000060</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E000373</t>
+          <t>E000230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>E000380</t>
+          <t>E000046</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>E000227</t>
+          <t>E000367</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,31 +988,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E000366</t>
+          <t>E000221</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>E000346</t>
+          <t>E000292</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E000322</t>
+          <t>E000067</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,43 +1024,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>E000174</t>
+          <t>E000071</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>E000374</t>
+          <t>E000332</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>E000194</t>
+          <t>E000298</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>E000193</t>
+          <t>E000195</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,19 +1072,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>E000260</t>
+          <t>E000304</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>E000198</t>
+          <t>E000111</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,55 +1096,55 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>E000293</t>
+          <t>E000130</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>E000127</t>
+          <t>E000207</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>E000196</t>
+          <t>E000140</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>E000257</t>
+          <t>E000017</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>E000146</t>
+          <t>E000257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,19 +1156,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>E000108</t>
+          <t>E000321</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>E000225</t>
+          <t>E000107</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>E000107</t>
+          <t>E000373</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,259 +1192,259 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>E000228</t>
+          <t>E000343</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>E000361</t>
+          <t>E000294</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>E000188</t>
+          <t>E000307</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>E000128</t>
+          <t>E000051</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>E000229</t>
+          <t>E000339</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>E000365</t>
+          <t>E000117</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>E000110</t>
+          <t>E000015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>E000371</t>
+          <t>E000280</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>E000226</t>
+          <t>E000253</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>E000379</t>
+          <t>E000089</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>E000363</t>
+          <t>E000335</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>E000185</t>
+          <t>E000101</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>E000178</t>
+          <t>E000233</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>E000098</t>
+          <t>E000141</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>E000003</t>
+          <t>E000156</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>E000145</t>
+          <t>E000334</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>E000160</t>
+          <t>E000249</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>E000364</t>
+          <t>E000328</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>E000315</t>
+          <t>E000002</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>E000275</t>
+          <t>E000029</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>E000375</t>
+          <t>E000217</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>E000161</t>
+          <t>E000127</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,12 +1456,3564 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>E000317</t>
+          <t>E000190</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>a_reparer</t>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>E000026</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>E000106</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>E000354</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>E000248</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>E000285</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>E000262</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>E000303</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>E000050</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>E000151</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>E000266</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>E000246</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>E000086</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>E000108</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>E000220</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>E000007</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>E000314</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>E000079</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>E000090</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>E000311</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>E000037</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>E000132</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>E000239</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>E000189</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>E000187</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>E000122</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>E000103</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>E000025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>E000052</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>E000173</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>E000244</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>E000146</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>E000039</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>E000124</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>E000099</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>E000358</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>E000143</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>E000138</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>E000181</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>E000212</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>E000241</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>E000297</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>E000176</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>E000378</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>E000380</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>E000185</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>E000014</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>E000272</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>E000305</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>E000309</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>E000184</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>E000004</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>E000077</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>E000174</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>E000036</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>E000270</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>E000359</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>E000171</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>E000062</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>E000065</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>E000320</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>E000350</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>E000274</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>E000278</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>E000283</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>E000269</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>E000144</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>E000229</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>E000288</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>E000121</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>E000363</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>E000028</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>E000094</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>E000159</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>E000199</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>E000355</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>E000202</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>E000012</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>E000275</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>E000019</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>E000031</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>E000357</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>E000041</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>E000193</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>E000211</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>E000302</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>E000346</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>E000027</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>E000172</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>E000198</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>E000352</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>E000178</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>E000319</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>E000016</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>E000164</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>E000072</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>E000251</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>E000168</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>E000125</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>E000179</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>E000240</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>E000324</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>E000242</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>E000349</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>E000208</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>E000265</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>E000366</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>E000341</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>E000023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>E000234</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>E000059</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>E000342</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>E000120</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>E000003</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>E000356</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>E000008</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>E000084</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>E000057</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>E000226</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>E000306</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>E000284</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>E000201</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>E000224</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>E000073</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>E000252</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>E000214</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>E000316</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>E000035</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>E000020</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>E000362</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>E000087</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>E000348</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>E000374</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>E000158</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>E000261</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>E000360</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>E000186</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>E000215</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>E000312</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>E000098</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>E000329</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>E000112</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>E000006</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>E000375</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>E000204</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>E000310</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>E000040</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>E000009</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>E000048</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>E000148</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>E000308</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>E000153</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>E000196</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>E000053</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>E000154</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>E000213</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>E000231</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>E000300</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>E000326</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>E000169</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>E000340</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>E000282</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>E000070</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>E000068</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>E000318</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>E000222</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>E000093</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>E000131</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>E000183</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>E000225</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>E000256</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>E000097</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>E000236</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>E000177</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>E000322</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>E000042</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>E000188</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>E000032</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>E000113</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>E000102</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>E000238</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>E000369</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>E000210</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>E000371</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>E000081</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>E000296</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>E000336</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>E000118</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>E000377</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>E000088</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>E000338</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>E000104</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>E000293</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>E000018</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>E000056</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>E000114</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>E000313</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>E000200</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>E000273</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>E000337</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>E000045</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>E000203</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>E000152</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>E000245</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>E000116</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>E000115</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>E000044</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>E000055</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>E000267</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>E000137</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>E000010</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>E000327</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>E000163</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>E000277</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>E000247</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>E000175</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>E000100</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>E000263</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>E000365</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>E000160</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>E000192</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>E000191</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>E000170</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>E000345</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>E000268</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>E000096</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>E000250</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>E000290</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>E000129</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>E000167</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>E000228</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>E000136</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>E000243</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>E000209</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>E000259</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>E000074</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>E000110</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>E000092</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>E000043</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>E000123</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>E000323</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>E000347</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>E000197</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>E000333</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>E000218</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>E000150</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>E000166</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>E000145</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>E000001</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>E000254</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>E000281</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>E000128</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>E000291</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>E000361</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>E000344</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>E000372</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>E000258</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>E000064</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>E000142</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>E000206</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>E000364</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>E000063</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>E000295</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>E000147</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>E000315</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>E000005</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>E000033</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>E000379</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>E000155</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>E000182</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>E000223</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>E000287</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>E000237</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>E000289</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>E000162</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>E000194</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>E000091</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>E000279</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>E000013</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>E000135</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>E000061</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>E000264</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>E000066</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>E000368</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>E000034</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>E000139</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>E000205</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>E000216</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>E000030</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>E000021</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>E000149</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>E000325</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>E000260</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>a_reparer</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>E000165</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>E000082</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>E000353</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>intact</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>E000078</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>intact</t>
         </is>
       </c>
     </row>
